--- a/src/main/resources/test_excel.xlsx
+++ b/src/main/resources/test_excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yupi/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\yubi-backend\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF756E6F-D024-F543-BF1B-5BFCE872F8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35267898-00F2-4F62-BF2F-AD0F2F124327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="2660" windowWidth="28060" windowHeight="16940" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,22 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>小数</t>
   </si>
@@ -50,6 +40,10 @@
   </si>
   <si>
     <t>字符串</t>
+  </si>
+  <si>
+    <t>ss</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -57,7 +51,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -120,10 +114,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -440,15 +434,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260829AF-83D5-9D43-A57C-13A2BDCFFDE0}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="22.8"/>
   <cols>
-    <col min="4" max="4" width="10.77734375" style="5"/>
+    <col min="4" max="4" width="14.5625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -476,6 +470,17 @@
         <v>1.2</v>
       </c>
       <c r="D2" s="4">
+        <v>44844</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="5">
         <v>44844</v>
       </c>
     </row>
